--- a/CalculoDeUsuario(DefinirPoblaiónObjetivo).xlsx
+++ b/CalculoDeUsuario(DefinirPoblaiónObjetivo).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unadvirtualedu-my.sharepoint.com/personal/laquinterohe_unadvirtual_edu_co/Documents/9.16-02(2025)/5.ProyectoDeGrado/RAP2.FormularPropuestaInvestigación/Tarea3.FormulaciónProcesoMeto/Prototipo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unadvirtualedu-my.sharepoint.com/personal/laquinterohe_unadvirtual_edu_co/Documents/9.16-02(2025)/5.ProyectoDeGrado/RAP2.FormularPropuestaInvestigación/Tarea3.FormulaciónProcesoMeto/Proyecto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="11_AD4D2F04E46CFB4ACB3E20E65D93FBE4693EDF2A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79170A7A-DDE1-40F0-BEC3-B486AD9B253F}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="11_AD4D2F04E46CFB4ACB3E20E65D93FBE4693EDF2A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A34D713-63A5-4D93-AB24-F29C75E8F623}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -110,11 +110,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;?_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -140,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +156,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,30 +195,29 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -590,14 +595,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -608,7 +613,7 @@
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="8">
         <v>157425</v>
       </c>
     </row>
@@ -616,23 +621,23 @@
       <c r="A3" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>0.81299999999999994</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <f>B2*B3</f>
         <v>127986.52499999999</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="6">
         <v>0.65900000000000003</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <f>C3*B4</f>
         <v>84343.119974999994</v>
       </c>
@@ -644,13 +649,13 @@
       <c r="B5" s="3">
         <v>0.1</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <f>B2*B3*B4*B5</f>
         <v>8434.3119974999991</v>
       </c>
@@ -722,23 +727,23 @@
       <c r="B19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="14">
         <f>G21</f>
         <v>1.65</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="G19" s="6"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="15">
         <v>0.5</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="1"/>
       <c r="F20" s="4">
         <v>0.95</v>
       </c>
@@ -750,12 +755,12 @@
       <c r="B21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="15">
         <v>0.5</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="19">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="17">
         <v>0.09</v>
       </c>
       <c r="G21" s="2">
@@ -766,11 +771,11 @@
       <c r="B22" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="13">
         <f>B6</f>
         <v>8434.3119974999991</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="10"/>
       <c r="F22" s="5">
         <v>0.91</v>
       </c>
@@ -782,8 +787,8 @@
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="20">
-        <v>8.5999999999999993E-2</v>
+      <c r="C23" s="19">
+        <v>0.2</v>
       </c>
       <c r="F23" s="5">
         <v>0.92</v>
@@ -815,28 +820,28 @@
       <c r="B26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="16">
         <f>((((C22*(C19^2))*C20)*C21))/( ((C23^2)*(C22-1))+(((C19^2)*C20)*C21))</f>
-        <v>91.043521122188636</v>
+        <v>16.983375851645675</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="8"/>
+      <c r="D28" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D30" s="8"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="11"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36" s="11"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="11"/>
+      <c r="C38" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">
